--- a/ethtool-rxq-perf.xlsx
+++ b/ethtool-rxq-perf.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/witu/Downloads/netdevconf18-sharedmem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFAE048-A445-3E46-A528-E67AEA1E6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E110CAE-5BA1-6D46-83B0-7984B1CB7D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43040" yWindow="3160" windowWidth="32500" windowHeight="22800" xr2:uid="{5E59E5E2-F141-C44A-99E6-EC476DF99647}"/>
+    <workbookView xWindow="-34700" yWindow="2520" windowWidth="32500" windowHeight="22800" activeTab="1" xr2:uid="{5E59E5E2-F141-C44A-99E6-EC476DF99647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet4!$D$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet4!$D$13:$D$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet4!$E$13:$E$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet4!$E$19</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>TCP throughput (Gbps)</t>
   </si>
@@ -45,17 +53,107 @@
     <t>FreeMem (GB)</t>
   </si>
   <si>
-    <t>Number of SFs</t>
+    <t>freemem.pdf</t>
   </si>
   <si>
-    <t>freemem.pdf</t>
+    <t>40MB</t>
+  </si>
+  <si>
+    <t>Number of SFs+REPs</t>
+  </si>
+  <si>
+    <t>Q64</t>
+  </si>
+  <si>
+    <t>Q128</t>
+  </si>
+  <si>
+    <t>Q256</t>
+  </si>
+  <si>
+    <t>Q512</t>
+  </si>
+  <si>
+    <t>Q1024</t>
+  </si>
+  <si>
+    <t>Q2048</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>out_of_buffers (K)</t>
+  </si>
+  <si>
+    <t>Rquests (K)/second</t>
+  </si>
+  <si>
+    <t>Time taken for tests (sec)</t>
+  </si>
+  <si>
+    <t>Transfer rate (MB/sec)</t>
+  </si>
+  <si>
+    <t>start MemFree</t>
+  </si>
+  <si>
+    <t>end MemFree</t>
+  </si>
+  <si>
+    <t>diff (MB)</t>
+  </si>
+  <si>
+    <t>fw usage (MB)</t>
+  </si>
+  <si>
+    <t>per-SF-rep (MB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1RXQ Memory </t>
+  </si>
+  <si>
+    <t>Page Pool-1RXQ</t>
+  </si>
+  <si>
+    <t>Firmware</t>
+  </si>
+  <si>
+    <t>2RXQ Memory</t>
+  </si>
+  <si>
+    <t>Time to complete</t>
+  </si>
+  <si>
+    <t>Conn Time (ms)</t>
+  </si>
+  <si>
+    <t>Conn Time SD</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>Bandwidth (Static)</t>
+  </si>
+  <si>
+    <t>Bandwidth (Dynamic)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,13 +161,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,8 +200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,6 +763,853 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$20:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBEE-314E-9003-9786F76B7953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$20:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$20:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DBEE-314E-9003-9786F76B7953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$20:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$G$20:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DBEE-314E-9003-9786F76B7953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$20:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$H$20:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DBEE-314E-9003-9786F76B7953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$20:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$I$20:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DBEE-314E-9003-9786F76B7953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q2048</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$20:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$J$20:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DBEE-314E-9003-9786F76B7953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1369552176"/>
+        <c:axId val="1188780352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1369552176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1188780352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1188780352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1369552176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -983,6 +1950,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1500,6 +2507,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2044,6 +3554,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>719667</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E492695B-9C37-6ECC-767A-C6006BE9D2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2401,17 +3952,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE2D3A7-DA3F-BA4B-BE8E-09B0B6CF6099}">
-  <dimension ref="C4:K22"/>
+  <dimension ref="C4:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -2433,7 +3984,7 @@
         <v>13.164899999999999</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
@@ -2516,7 +4067,7 @@
         <v>4.4665900000000001</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>240</v>
       </c>
@@ -2524,7 +4075,7 @@
         <v>3.5820400000000001</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>260</v>
       </c>
@@ -2532,7 +4083,7 @@
         <v>2.6989299999999998</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>280</v>
       </c>
@@ -2540,7 +4091,7 @@
         <v>1.82125</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>300</v>
       </c>
@@ -2548,7 +4099,7 @@
         <v>0.93986400000000003</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>320</v>
       </c>
@@ -2556,12 +4107,21 @@
         <v>0.15662799999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>340</v>
       </c>
       <c r="D22">
         <v>0.153748</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f>(D6-D5)/20</f>
+        <v>-4.0589999999999994E-2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2571,6 +4131,1309 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD3F8A-E844-0B4A-8151-0D7E18BB9296}">
+  <dimension ref="D2:J76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60:K62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>392</v>
+      </c>
+      <c r="F3">
+        <v>391</v>
+      </c>
+      <c r="G3">
+        <v>316</v>
+      </c>
+      <c r="H3">
+        <v>304</v>
+      </c>
+      <c r="I3">
+        <v>300</v>
+      </c>
+      <c r="J3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>10.8</v>
+      </c>
+      <c r="F4">
+        <v>11.8</v>
+      </c>
+      <c r="G4">
+        <v>10.6</v>
+      </c>
+      <c r="H4">
+        <v>12.4</v>
+      </c>
+      <c r="I4">
+        <v>11.4</v>
+      </c>
+      <c r="J4">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>36.9</v>
+      </c>
+      <c r="F5">
+        <v>33.6</v>
+      </c>
+      <c r="G5">
+        <v>37.5</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>34.9</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>115.8</v>
+      </c>
+      <c r="F6">
+        <v>127.3</v>
+      </c>
+      <c r="G6">
+        <v>114</v>
+      </c>
+      <c r="H6">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="I6">
+        <v>122.6</v>
+      </c>
+      <c r="J6">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>45.6</v>
+      </c>
+      <c r="F9">
+        <v>104</v>
+      </c>
+      <c r="G9">
+        <v>21.9</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>29.48</v>
+      </c>
+      <c r="F10">
+        <v>71</v>
+      </c>
+      <c r="G10">
+        <v>33.9</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>24.55</v>
+      </c>
+      <c r="F11">
+        <v>5.89</v>
+      </c>
+      <c r="G11">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>24.06</v>
+      </c>
+      <c r="F12">
+        <v>1.2</v>
+      </c>
+      <c r="G12">
+        <v>41.5</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>24.09</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>41.5</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>24.03</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>41.2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D19" s="1"/>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D23" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D24" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E24">
+        <v>208</v>
+      </c>
+      <c r="F24">
+        <v>207</v>
+      </c>
+      <c r="G24">
+        <v>208</v>
+      </c>
+      <c r="H24">
+        <v>207</v>
+      </c>
+      <c r="I24">
+        <v>208</v>
+      </c>
+      <c r="J24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D25" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E25">
+        <v>212</v>
+      </c>
+      <c r="F25">
+        <v>210</v>
+      </c>
+      <c r="G25">
+        <v>212</v>
+      </c>
+      <c r="H25">
+        <v>209</v>
+      </c>
+      <c r="I25">
+        <v>210</v>
+      </c>
+      <c r="J25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>55.5</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>62.2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>52.8</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>43</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <v>208</v>
+      </c>
+      <c r="J37">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>207</v>
+      </c>
+      <c r="J38">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>208</v>
+      </c>
+      <c r="J39">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>207</v>
+      </c>
+      <c r="J40">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>208</v>
+      </c>
+      <c r="J41">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>44</v>
+      </c>
+      <c r="J42">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D46" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>24.6</v>
+      </c>
+      <c r="F48">
+        <v>22</v>
+      </c>
+      <c r="G48">
+        <v>40.1</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>24.1</v>
+      </c>
+      <c r="F49">
+        <v>2.1</v>
+      </c>
+      <c r="G49">
+        <v>41.3</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>24.2</v>
+      </c>
+      <c r="F50">
+        <v>65</v>
+      </c>
+      <c r="G50">
+        <v>41.2</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>23.9</v>
+      </c>
+      <c r="F51">
+        <v>95</v>
+      </c>
+      <c r="G51">
+        <v>41.7</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
+        <v>64</v>
+      </c>
+      <c r="F55" s="2">
+        <v>128</v>
+      </c>
+      <c r="G55" s="2">
+        <v>256</v>
+      </c>
+      <c r="H55" s="2">
+        <v>512</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J55" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="F56" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="G56" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="H56" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="I56" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="J56" s="2">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="F57" s="2">
+        <v>5.19</v>
+      </c>
+      <c r="G57" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="H57" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="I57" s="2">
+        <v>5.79</v>
+      </c>
+      <c r="J57" s="2">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F72">
+        <v>0.2</v>
+      </c>
+      <c r="G72">
+        <v>0.113</v>
+      </c>
+      <c r="H72">
+        <v>2.835</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>1.3</v>
+      </c>
+      <c r="F73">
+        <v>0.4</v>
+      </c>
+      <c r="G73">
+        <v>0.114</v>
+      </c>
+      <c r="H73">
+        <v>2.915</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="F74">
+        <v>0.78</v>
+      </c>
+      <c r="G74">
+        <v>0.114</v>
+      </c>
+      <c r="H74">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>2.86</v>
+      </c>
+      <c r="F75">
+        <v>1.83</v>
+      </c>
+      <c r="G75">
+        <v>0.114</v>
+      </c>
+      <c r="H75">
+        <v>5.0250000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>4.9349999999999996</v>
+      </c>
+      <c r="F76">
+        <v>3.93</v>
+      </c>
+      <c r="G76">
+        <v>0.115</v>
+      </c>
+      <c r="H76">
+        <v>9.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAA2570-0171-F148-9905-699EC63B065E}">
+  <dimension ref="D15:I38"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>30770</v>
+      </c>
+      <c r="F33">
+        <v>30394</v>
+      </c>
+      <c r="G33">
+        <v>376</v>
+      </c>
+      <c r="H33">
+        <v>113.515625</v>
+      </c>
+      <c r="I33">
+        <f>G33/200</f>
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>30772</v>
+      </c>
+      <c r="F34">
+        <v>30400</v>
+      </c>
+      <c r="G34">
+        <v>372</v>
+      </c>
+      <c r="H34">
+        <v>113.515625</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I38" si="0">G34/200</f>
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>30781</v>
+      </c>
+      <c r="F35">
+        <v>30426</v>
+      </c>
+      <c r="G35">
+        <v>355</v>
+      </c>
+      <c r="H35">
+        <v>113.515625</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>1.7749999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>30756</v>
+      </c>
+      <c r="F36">
+        <v>30395</v>
+      </c>
+      <c r="G36">
+        <v>361</v>
+      </c>
+      <c r="H36">
+        <v>113.515625</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>1.8049999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>30777</v>
+      </c>
+      <c r="F37">
+        <v>30205</v>
+      </c>
+      <c r="G37">
+        <v>572</v>
+      </c>
+      <c r="H37">
+        <v>114.0859375</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>30766</v>
+      </c>
+      <c r="F38">
+        <v>29779</v>
+      </c>
+      <c r="G38">
+        <v>987</v>
+      </c>
+      <c r="H38">
+        <v>115.796875</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>4.9349999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F5136E-1638-EF4F-9CFA-E34CDBCA4963}">
   <dimension ref="B4:H5"/>
   <sheetViews>

--- a/ethtool-rxq-perf.xlsx
+++ b/ethtool-rxq-perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/witu/Downloads/netdevconf18-sharedmem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E110CAE-5BA1-6D46-83B0-7984B1CB7D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BA2DD-5932-C944-8B0C-EAC57A962E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34700" yWindow="2520" windowWidth="32500" windowHeight="22800" activeTab="1" xr2:uid="{5E59E5E2-F141-C44A-99E6-EC476DF99647}"/>
+    <workbookView xWindow="2580" yWindow="1700" windowWidth="32500" windowHeight="21100" activeTab="1" xr2:uid="{5E59E5E2-F141-C44A-99E6-EC476DF99647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>TCP throughput (Gbps)</t>
   </si>
@@ -4134,8 +4134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD3F8A-E844-0B4A-8151-0D7E18BB9296}">
   <dimension ref="D2:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60:K62"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5023,29 +5023,89 @@
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="D61" s="2">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2.71</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="D62" s="2">
+        <v>128</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="F62" s="2">
+        <v>5.19</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D63" s="2">
+        <v>256</v>
+      </c>
+      <c r="E63" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="F63" s="2">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D64" s="2">
+        <v>512</v>
+      </c>
+      <c r="E64" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="F64" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D65" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E65" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="F65" s="2">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D66" s="2">
+        <v>2048</v>
+      </c>
+      <c r="E66" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="F66" s="2">
+        <v>5.49</v>
+      </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E71" t="s">

--- a/ethtool-rxq-perf.xlsx
+++ b/ethtool-rxq-perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/witu/Downloads/netdevconf18-sharedmem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BA2DD-5932-C944-8B0C-EAC57A962E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7912B7-8554-0145-907B-E1205BEFC3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1700" windowWidth="32500" windowHeight="21100" activeTab="1" xr2:uid="{5E59E5E2-F141-C44A-99E6-EC476DF99647}"/>
+    <workbookView xWindow="2580" yWindow="1700" windowWidth="32500" windowHeight="21100" activeTab="3" xr2:uid="{5E59E5E2-F141-C44A-99E6-EC476DF99647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,6 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet4!$D$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet4!$D$13:$D$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet4!$E$13:$E$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet4!$E$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>TCP throughput (Gbps)</t>
   </si>
@@ -148,6 +142,12 @@
   <si>
     <t>Bandwidth (Dynamic)</t>
   </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>adjustable</t>
+  </si>
 </sst>
 </file>
 
@@ -204,8 +204,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1672,22 +1672,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.8</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.17</c:v>
+                  <c:v>5.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.4</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.8</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.5</c:v>
+                  <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.4</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1718,6 +1718,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>RXQ Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1740,7 +1795,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1799,7 +1854,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1826,6 +1881,574 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Static RXQ vs Adjustable</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> RXQ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7797-2946-9B6D-493C8E9B38D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>adjustable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7797-2946-9B6D-493C8E9B38D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="1326644512"/>
+        <c:axId val="1326646224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1326644512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326646224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1326646224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>TCP Gbps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326644512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1990,6 +2613,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3010,6 +3673,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3627,6 +4793,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>811770</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441067</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>131634</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA741B21-D5EC-01E3-9CFA-03C48557B6AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4134,7 +5336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD3F8A-E844-0B4A-8151-0D7E18BB9296}">
   <dimension ref="D2:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D60" sqref="D60:F66"/>
     </sheetView>
   </sheetViews>
@@ -4835,7 +6037,7 @@
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5236,87 +6438,87 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
@@ -5463,6 +6665,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
@@ -5471,22 +6689,6 @@
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:H27"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5495,10 +6697,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F5136E-1638-EF4F-9CFA-E34CDBCA4963}">
-  <dimension ref="B4:H5"/>
+  <dimension ref="B4:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5528,22 +6730,88 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.8</v>
+        <v>3.78</v>
       </c>
       <c r="D5">
-        <v>8.17</v>
+        <v>5.23</v>
       </c>
       <c r="E5">
-        <v>14.4</v>
+        <v>6.03</v>
       </c>
       <c r="F5">
-        <v>18.8</v>
+        <v>6.25</v>
       </c>
       <c r="G5">
-        <v>20.5</v>
+        <v>6.08</v>
       </c>
       <c r="H5">
-        <v>21.4</v>
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>64</v>
+      </c>
+      <c r="D29">
+        <v>128</v>
+      </c>
+      <c r="E29">
+        <v>256</v>
+      </c>
+      <c r="F29">
+        <v>512</v>
+      </c>
+      <c r="G29">
+        <v>1024</v>
+      </c>
+      <c r="H29">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>3.78</v>
+      </c>
+      <c r="D30">
+        <v>5.23</v>
+      </c>
+      <c r="E30">
+        <v>6.03</v>
+      </c>
+      <c r="F30">
+        <v>6.25</v>
+      </c>
+      <c r="G30">
+        <v>6.08</v>
+      </c>
+      <c r="H30">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>2.71</v>
+      </c>
+      <c r="D31">
+        <v>5.19</v>
+      </c>
+      <c r="E31">
+        <v>6.15</v>
+      </c>
+      <c r="F31">
+        <v>6.4</v>
+      </c>
+      <c r="G31">
+        <v>5.79</v>
+      </c>
+      <c r="H31">
+        <v>5.49</v>
       </c>
     </row>
   </sheetData>

--- a/ethtool-rxq-perf.xlsx
+++ b/ethtool-rxq-perf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/witu/Downloads/netdevconf18-sharedmem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7912B7-8554-0145-907B-E1205BEFC3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6BD89F-8091-CE47-A7D9-3920DECCF947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1700" windowWidth="32500" windowHeight="21100" activeTab="3" xr2:uid="{5E59E5E2-F141-C44A-99E6-EC476DF99647}"/>
+    <workbookView xWindow="2060" yWindow="1240" windowWidth="32500" windowHeight="21100" activeTab="3" xr2:uid="{5E59E5E2-F141-C44A-99E6-EC476DF99647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -2035,26 +2035,23 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$29:$H$29</c:f>
+              <c:f>Sheet1!$C$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>256</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>512</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
@@ -2062,26 +2059,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$H$30</c:f>
+              <c:f>Sheet1!$C$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.78</c:v>
+                  <c:v>5.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.23</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.03</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.25</c:v>
+                  <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>6.03</c:v>
                 </c:pt>
               </c:numCache>
@@ -2177,26 +2171,23 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$29:$H$29</c:f>
+              <c:f>Sheet1!$C$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>256</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>512</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
@@ -2204,26 +2195,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$H$31</c:f>
+              <c:f>Sheet1!$C$31:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.71</c:v>
+                  <c:v>5.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.19</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.15</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4</c:v>
+                  <c:v>5.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.79</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>5.49</c:v>
                 </c:pt>
               </c:numCache>
@@ -2255,6 +2243,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>High Watermark</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6700,7 +6743,7 @@
   <dimension ref="B4:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6748,69 +6791,60 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C29">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D29">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E29">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="F29">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="G29">
-        <v>1024</v>
-      </c>
-      <c r="H29">
         <v>2048</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30">
-        <v>3.78</v>
+        <v>5.23</v>
       </c>
       <c r="D30">
-        <v>5.23</v>
+        <v>6.03</v>
       </c>
       <c r="E30">
+        <v>6.25</v>
+      </c>
+      <c r="F30">
+        <v>6.08</v>
+      </c>
+      <c r="G30">
         <v>6.03</v>
       </c>
-      <c r="F30">
-        <v>6.25</v>
-      </c>
-      <c r="G30">
-        <v>6.08</v>
-      </c>
-      <c r="H30">
-        <v>6.03</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31">
-        <v>2.71</v>
+        <v>5.19</v>
       </c>
       <c r="D31">
-        <v>5.19</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>6.15</v>
+        <v>6.25</v>
       </c>
       <c r="F31">
-        <v>6.4</v>
+        <v>5.79</v>
       </c>
       <c r="G31">
-        <v>5.79</v>
-      </c>
-      <c r="H31">
         <v>5.49</v>
       </c>
     </row>
